--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Desktop/Kommission f gesch ö/Kommission Aichner/Projekte/Baernreither/Clariah 2022/Register/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11475"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="256">
   <si>
     <t>Reichenberg</t>
   </si>
@@ -394,9 +394,6 @@
     <t>https://d-nb.info/gnd/7509421-6</t>
   </si>
   <si>
-    <t>https://d-nb.info/gnd/4058386-7</t>
-  </si>
-  <si>
     <t>https://www.geonames.org/11926248/cheb.html</t>
   </si>
   <si>
@@ -508,9 +505,6 @@
     <t>https://www.geonames.org/719819/hungary.html</t>
   </si>
   <si>
-    <t>https://www.geonames.org/2763586/tirol.html</t>
-  </si>
-  <si>
     <t>https://www.geonames.org/2764581/steiermark.html</t>
   </si>
   <si>
@@ -634,9 +628,6 @@
     <t>Město Brno</t>
   </si>
   <si>
-    <t>Deutschböhmen, Sudetenland</t>
-  </si>
-  <si>
     <t>England (Großbritannien)</t>
   </si>
   <si>
@@ -652,10 +643,6 @@
     <t xml:space="preserve">https://www.geonames.org/2967305/woerth.html </t>
   </si>
   <si>
-    <t>https://www.geonames.org/11055010/zadar.html 
-https://www.geonames.org/3186952/zadar.html</t>
-  </si>
-  <si>
     <t>https://www.geonames.org/3062887/vinare.html</t>
   </si>
   <si>
@@ -716,9 +703,6 @@
     <t xml:space="preserve">https://www.geonames.org/3195878/maksimir.html </t>
   </si>
   <si>
-    <t>https://d-nb.info/gnd/4032741-3</t>
-  </si>
-  <si>
     <t>Küstenland</t>
   </si>
   <si>
@@ -726,13 +710,100 @@
   </si>
   <si>
     <t>https://d-nb.info/gnd/4280197-7</t>
+  </si>
+  <si>
+    <t>Keywert</t>
+  </si>
+  <si>
+    <t>BadIschl</t>
+  </si>
+  <si>
+    <t>Boehmen</t>
+  </si>
+  <si>
+    <t>Bosnien</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Herzegowina</t>
+  </si>
+  <si>
+    <t>Neupest</t>
+  </si>
+  <si>
+    <t>Saaz</t>
+  </si>
+  <si>
+    <t>Theresienstadt</t>
+  </si>
+  <si>
+    <t>Biala</t>
+  </si>
+  <si>
+    <t>Bruenn</t>
+  </si>
+  <si>
+    <t>Goerz</t>
+  </si>
+  <si>
+    <t>Kaernten</t>
+  </si>
+  <si>
+    <t>Koenigsberg</t>
+  </si>
+  <si>
+    <t>Koenigswart</t>
+  </si>
+  <si>
+    <t>Kuestenland</t>
+  </si>
+  <si>
+    <t>Luenz</t>
+  </si>
+  <si>
+    <t>Maehren</t>
+  </si>
+  <si>
+    <t>Muenchen</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>NoviGrad</t>
+  </si>
+  <si>
+    <t>Olmuetz</t>
+  </si>
+  <si>
+    <t>Oesterreich</t>
+  </si>
+  <si>
+    <t>RakosPalota</t>
+  </si>
+  <si>
+    <t>StarnbergerSee</t>
+  </si>
+  <si>
+    <t>Amerika</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/11055010/zadar.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3197905/kokra.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2763587/tyrol.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,35 +830,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -806,7 +855,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -831,28 +880,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -911,14 +962,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:C91" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D1048575" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <sortState ref="A2:D89">
     <sortCondition ref="A2"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="5" name="Name" dataDxfId="2"/>
-    <tableColumn id="1" name="heute" dataDxfId="1"/>
-    <tableColumn id="2" name="GeoNames" dataDxfId="0"/>
+  <tableColumns count="4">
+    <tableColumn id="5" name="Name" dataDxfId="3"/>
+    <tableColumn id="1" name="heute" dataDxfId="2"/>
+    <tableColumn id="2" name="GeoNames" dataDxfId="1"/>
+    <tableColumn id="3" name="Keywert" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1211,32 +1263,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="134" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="74.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1246,17 +1301,23 @@
       <c r="C2" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -1264,8 +1325,11 @@
       <c r="C4" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
@@ -1273,10 +1337,13 @@
       <c r="C5" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>71</v>
@@ -1284,10 +1351,13 @@
       <c r="C6" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>63</v>
@@ -1295,8 +1365,11 @@
       <c r="C7" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1306,28 +1379,37 @@
       <c r="C8" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1335,8 +1417,11 @@
       <c r="C11" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>51</v>
       </c>
@@ -1346,8 +1431,11 @@
       <c r="C12" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1357,8 +1445,11 @@
       <c r="C13" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1368,789 +1459,1003 @@
       <c r="C14" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="15" t="s">
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="C23" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="D41" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="D60" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>94</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="C69" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>218</v>
-      </c>
+      <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C74" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C79" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B85" s="6" t="s">
+    </row>
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="C84" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="C85" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="B89" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2162,55 +2467,53 @@
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C49" r:id="rId9"/>
+    <hyperlink ref="C48" r:id="rId9"/>
     <hyperlink ref="C11" r:id="rId10"/>
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="C13" r:id="rId12"/>
     <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C15" r:id="rId15"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
     <hyperlink ref="C17" r:id="rId16"/>
     <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId18"/>
     <hyperlink ref="C21" r:id="rId19"/>
-    <hyperlink ref="C22" r:id="rId20"/>
+    <hyperlink ref="C23" r:id="rId20"/>
     <hyperlink ref="C24" r:id="rId21"/>
     <hyperlink ref="C25" r:id="rId22"/>
     <hyperlink ref="C26" r:id="rId23"/>
-    <hyperlink ref="C27" r:id="rId24"/>
-    <hyperlink ref="C9" r:id="rId25"/>
-    <hyperlink ref="C28" r:id="rId26"/>
-    <hyperlink ref="C33" r:id="rId27"/>
-    <hyperlink ref="C32" r:id="rId28"/>
-    <hyperlink ref="C34" r:id="rId29"/>
-    <hyperlink ref="C37" r:id="rId30"/>
-    <hyperlink ref="C29" r:id="rId31"/>
-    <hyperlink ref="C23" r:id="rId32"/>
-    <hyperlink ref="C90" r:id="rId33" display="https://www.geonames.org/11055010/zadar.html "/>
-    <hyperlink ref="C89" r:id="rId34"/>
-    <hyperlink ref="C20" r:id="rId35"/>
-    <hyperlink ref="C65" r:id="rId36"/>
-    <hyperlink ref="C88" r:id="rId37"/>
-    <hyperlink ref="C86" r:id="rId38"/>
-    <hyperlink ref="C85" r:id="rId39"/>
-    <hyperlink ref="C78" r:id="rId40"/>
-    <hyperlink ref="C76" r:id="rId41"/>
-    <hyperlink ref="C66" r:id="rId42"/>
-    <hyperlink ref="C62" r:id="rId43"/>
-    <hyperlink ref="C56" r:id="rId44"/>
-    <hyperlink ref="C54" r:id="rId45"/>
-    <hyperlink ref="C38" r:id="rId46"/>
-    <hyperlink ref="C51" r:id="rId47"/>
-    <hyperlink ref="C50" r:id="rId48"/>
-    <hyperlink ref="C48" r:id="rId49"/>
-    <hyperlink ref="C46" r:id="rId50"/>
-    <hyperlink ref="C39" r:id="rId51"/>
-    <hyperlink ref="C59" r:id="rId52"/>
+    <hyperlink ref="C9" r:id="rId24"/>
+    <hyperlink ref="C27" r:id="rId25"/>
+    <hyperlink ref="C32" r:id="rId26"/>
+    <hyperlink ref="C31" r:id="rId27"/>
+    <hyperlink ref="C33" r:id="rId28"/>
+    <hyperlink ref="C28" r:id="rId29"/>
+    <hyperlink ref="C22" r:id="rId30"/>
+    <hyperlink ref="C89" r:id="rId31" display="https://www.geonames.org/11055010/zadar.html "/>
+    <hyperlink ref="C88" r:id="rId32"/>
+    <hyperlink ref="C19" r:id="rId33"/>
+    <hyperlink ref="C64" r:id="rId34"/>
+    <hyperlink ref="C87" r:id="rId35"/>
+    <hyperlink ref="C85" r:id="rId36"/>
+    <hyperlink ref="C84" r:id="rId37"/>
+    <hyperlink ref="C77" r:id="rId38"/>
+    <hyperlink ref="C75" r:id="rId39"/>
+    <hyperlink ref="C65" r:id="rId40"/>
+    <hyperlink ref="C61" r:id="rId41"/>
+    <hyperlink ref="C55" r:id="rId42"/>
+    <hyperlink ref="C53" r:id="rId43"/>
+    <hyperlink ref="C37" r:id="rId44"/>
+    <hyperlink ref="C50" r:id="rId45"/>
+    <hyperlink ref="C49" r:id="rId46"/>
+    <hyperlink ref="C47" r:id="rId47"/>
+    <hyperlink ref="C45" r:id="rId48"/>
+    <hyperlink ref="C38" r:id="rId49"/>
+    <hyperlink ref="C58" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
   <tableParts count="1">
-    <tablePart r:id="rId54"/>
+    <tablePart r:id="rId52"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2221,7 +2524,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2233,7 +2536,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Desktop/Kommission f gesch ö/Kommission Aichner/Projekte/Baernreither/Clariah 2022/Register/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -250,9 +250,6 @@
     <t>Dalmacija</t>
   </si>
   <si>
-    <t>Gorizia</t>
-  </si>
-  <si>
     <t>Karlovy Vary</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>https://www.geonames.org/3202210/dalmatia.html</t>
   </si>
   <si>
-    <t>https://d-nb.info/gnd/7509421-6</t>
-  </si>
-  <si>
     <t>https://www.geonames.org/11926248/cheb.html</t>
   </si>
   <si>
@@ -652,9 +646,6 @@
     <t>Untersteiermark</t>
   </si>
   <si>
-    <t>https://d-nb.info/gnd/4119311-8</t>
-  </si>
-  <si>
     <t>Magyarország</t>
   </si>
   <si>
@@ -706,12 +697,6 @@
     <t>Küstenland</t>
   </si>
   <si>
-    <t>https://d-nb.info/gnd/4398117-3</t>
-  </si>
-  <si>
-    <t>https://d-nb.info/gnd/4280197-7</t>
-  </si>
-  <si>
     <t>Keywert</t>
   </si>
   <si>
@@ -797,6 +782,21 @@
   </si>
   <si>
     <t>https://www.geonames.org/2763587/tyrol.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2921044/federal-republic-of-germany.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/7530808/powiat-cieszynski.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/12022680/podravska.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/12022679/goriska.html</t>
+  </si>
+  <si>
+    <t>Gorizia/Gorica</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1279,16 +1279,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -1307,14 +1307,14 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>54</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
@@ -1343,30 +1343,30 @@
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1377,7 +1377,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>31</v>
@@ -1385,28 +1385,28 @@
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>5</v>
@@ -1429,7 +1429,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>51</v>
@@ -1443,7 +1443,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -1457,7 +1457,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
@@ -1471,7 +1471,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>34</v>
@@ -1485,7 +1485,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>61</v>
@@ -1499,7 +1499,7 @@
         <v>68</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>59</v>
@@ -1513,7 +1513,7 @@
         <v>69</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>47</v>
@@ -1521,14 +1521,14 @@
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1539,7 +1539,7 @@
         <v>70</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>30</v>
@@ -1550,10 +1550,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>22</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>48</v>
@@ -1573,16 +1573,16 @@
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>14</v>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>44</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>42</v>
@@ -1623,14 +1623,14 @@
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>17</v>
@@ -1647,14 +1647,14 @@
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>35</v>
@@ -1674,10 +1674,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>27</v>
@@ -1689,50 +1689,50 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1740,10 +1740,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>12</v>
@@ -1754,10 +1754,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>36</v>
@@ -1765,14 +1765,14 @@
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="10" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1780,10 +1780,10 @@
         <v>28</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>28</v>
@@ -1794,10 +1794,10 @@
         <v>55</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>55</v>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>29</v>
@@ -1817,30 +1817,30 @@
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1848,10 +1848,10 @@
         <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>56</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1876,10 +1876,10 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>49</v>
@@ -1890,10 +1890,10 @@
         <v>26</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>26</v>
@@ -1904,13 +1904,13 @@
         <v>64</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1919,36 +1919,36 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>41</v>
@@ -1965,14 +1965,14 @@
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>45</v>
@@ -1992,10 +1992,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>53</v>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2021,10 +2021,10 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>38</v>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>58</v>
@@ -2056,10 +2056,10 @@
         <v>25</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>25</v>
@@ -2070,10 +2070,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>52</v>
@@ -2084,10 +2084,10 @@
         <v>24</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>24</v>
@@ -2101,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>3</v>
@@ -2109,30 +2109,30 @@
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>0</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>19</v>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>37</v>
@@ -2175,16 +2175,16 @@
     </row>
     <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2192,10 +2192,10 @@
         <v>60</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>60</v>
@@ -2206,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>6</v>
@@ -2217,14 +2217,14 @@
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>23</v>
@@ -2244,10 +2244,10 @@
         <v>50</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>50</v>
@@ -2258,10 +2258,10 @@
         <v>57</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>57</v>
@@ -2272,27 +2272,27 @@
         <v>7</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>21</v>
@@ -2312,10 +2312,10 @@
         <v>46</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>46</v>
@@ -2329,7 +2329,7 @@
         <v>18</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>18</v>
@@ -2340,10 +2340,10 @@
         <v>20</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>20</v>
@@ -2354,10 +2354,10 @@
         <v>8</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>8</v>
@@ -2368,10 +2368,10 @@
         <v>32</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>32</v>
@@ -2379,30 +2379,30 @@
     </row>
     <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>1</v>
@@ -2419,28 +2419,28 @@
     </row>
     <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2448,10 +2448,10 @@
         <v>16</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>16</v>
@@ -2472,48 +2472,45 @@
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="C13" r:id="rId12"/>
     <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C21" r:id="rId19"/>
-    <hyperlink ref="C23" r:id="rId20"/>
-    <hyperlink ref="C24" r:id="rId21"/>
-    <hyperlink ref="C25" r:id="rId22"/>
-    <hyperlink ref="C26" r:id="rId23"/>
-    <hyperlink ref="C9" r:id="rId24"/>
-    <hyperlink ref="C27" r:id="rId25"/>
-    <hyperlink ref="C32" r:id="rId26"/>
-    <hyperlink ref="C31" r:id="rId27"/>
-    <hyperlink ref="C33" r:id="rId28"/>
-    <hyperlink ref="C28" r:id="rId29"/>
-    <hyperlink ref="C22" r:id="rId30"/>
-    <hyperlink ref="C89" r:id="rId31" display="https://www.geonames.org/11055010/zadar.html "/>
-    <hyperlink ref="C88" r:id="rId32"/>
-    <hyperlink ref="C19" r:id="rId33"/>
-    <hyperlink ref="C64" r:id="rId34"/>
-    <hyperlink ref="C87" r:id="rId35"/>
-    <hyperlink ref="C85" r:id="rId36"/>
-    <hyperlink ref="C84" r:id="rId37"/>
-    <hyperlink ref="C77" r:id="rId38"/>
-    <hyperlink ref="C75" r:id="rId39"/>
-    <hyperlink ref="C65" r:id="rId40"/>
-    <hyperlink ref="C61" r:id="rId41"/>
-    <hyperlink ref="C55" r:id="rId42"/>
-    <hyperlink ref="C53" r:id="rId43"/>
-    <hyperlink ref="C37" r:id="rId44"/>
-    <hyperlink ref="C50" r:id="rId45"/>
-    <hyperlink ref="C49" r:id="rId46"/>
-    <hyperlink ref="C47" r:id="rId47"/>
-    <hyperlink ref="C45" r:id="rId48"/>
-    <hyperlink ref="C38" r:id="rId49"/>
-    <hyperlink ref="C58" r:id="rId50"/>
+    <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C18" r:id="rId16"/>
+    <hyperlink ref="C20" r:id="rId17"/>
+    <hyperlink ref="C21" r:id="rId18"/>
+    <hyperlink ref="C23" r:id="rId19"/>
+    <hyperlink ref="C24" r:id="rId20"/>
+    <hyperlink ref="C25" r:id="rId21"/>
+    <hyperlink ref="C26" r:id="rId22"/>
+    <hyperlink ref="C9" r:id="rId23"/>
+    <hyperlink ref="C27" r:id="rId24"/>
+    <hyperlink ref="C32" r:id="rId25"/>
+    <hyperlink ref="C31" r:id="rId26"/>
+    <hyperlink ref="C33" r:id="rId27"/>
+    <hyperlink ref="C28" r:id="rId28"/>
+    <hyperlink ref="C22" r:id="rId29"/>
+    <hyperlink ref="C89" r:id="rId30" display="https://www.geonames.org/11055010/zadar.html "/>
+    <hyperlink ref="C88" r:id="rId31"/>
+    <hyperlink ref="C19" r:id="rId32"/>
+    <hyperlink ref="C64" r:id="rId33"/>
+    <hyperlink ref="C87" r:id="rId34"/>
+    <hyperlink ref="C85" r:id="rId35"/>
+    <hyperlink ref="C77" r:id="rId36"/>
+    <hyperlink ref="C75" r:id="rId37"/>
+    <hyperlink ref="C65" r:id="rId38"/>
+    <hyperlink ref="C61" r:id="rId39"/>
+    <hyperlink ref="C55" r:id="rId40"/>
+    <hyperlink ref="C53" r:id="rId41"/>
+    <hyperlink ref="C37" r:id="rId42"/>
+    <hyperlink ref="C50" r:id="rId43"/>
+    <hyperlink ref="C49" r:id="rId44"/>
+    <hyperlink ref="C47" r:id="rId45"/>
+    <hyperlink ref="C45" r:id="rId46"/>
+    <hyperlink ref="C58" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
   <tableParts count="1">
-    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId49"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -37,9 +29,6 @@
     <t>Wien</t>
   </si>
   <si>
-    <t>GeoNames</t>
-  </si>
-  <si>
     <t>Prag</t>
   </si>
   <si>
@@ -697,9 +686,6 @@
     <t>Küstenland</t>
   </si>
   <si>
-    <t>Keywert</t>
-  </si>
-  <si>
     <t>BadIschl</t>
   </si>
   <si>
@@ -797,6 +783,12 @@
   </si>
   <si>
     <t>Gorizia/Gorica</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -892,7 +884,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -969,8 +961,8 @@
   <tableColumns count="4">
     <tableColumn id="5" name="Name" dataDxfId="3"/>
     <tableColumn id="1" name="heute" dataDxfId="2"/>
-    <tableColumn id="2" name="GeoNames" dataDxfId="1"/>
-    <tableColumn id="3" name="Keywert" dataDxfId="0"/>
+    <tableColumn id="2" name="PID" dataDxfId="1"/>
+    <tableColumn id="3" name="key" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1265,1196 +1257,1196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="74.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="B35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="C37" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="C62" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="C64" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="C75" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2513,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2533,7 +2525,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -1661,7 +1659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -2505,28 +2503,4 @@
     <tablePart r:id="rId49"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13725"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="257">
   <si>
     <t>Reichenberg</t>
   </si>
@@ -787,6 +795,9 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/12059772/budapest-vi.html</t>
   </si>
 </sst>
 </file>
@@ -882,7 +893,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1255,19 +1266,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="224" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="74.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>178</v>
       </c>
@@ -1331,7 +1342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>182</v>
       </c>
@@ -1345,7 +1356,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>132</v>
       </c>
@@ -1385,7 +1396,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>179</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -1495,7 +1506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1509,7 +1520,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>196</v>
       </c>
@@ -1561,7 +1572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>180</v>
       </c>
@@ -1611,7 +1622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>198</v>
       </c>
@@ -1659,7 +1670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -1673,7 +1684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1696,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>103</v>
       </c>
@@ -1697,7 +1708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>193</v>
       </c>
@@ -1711,7 +1722,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>194</v>
       </c>
@@ -1725,7 +1736,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -1739,7 +1750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1753,7 +1764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>220</v>
       </c>
@@ -1765,7 +1776,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -1779,7 +1790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>54</v>
       </c>
@@ -1793,7 +1804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>28</v>
       </c>
@@ -1805,7 +1816,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>184</v>
       </c>
@@ -1819,7 +1830,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>183</v>
       </c>
@@ -1833,7 +1844,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
@@ -1847,7 +1858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>190</v>
       </c>
@@ -1861,7 +1872,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -1875,7 +1886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>25</v>
       </c>
@@ -1889,7 +1900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>63</v>
       </c>
@@ -1903,7 +1914,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>42</v>
       </c>
@@ -1915,7 +1926,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>215</v>
       </c>
@@ -1929,7 +1940,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>85</v>
       </c>
@@ -1941,7 +1952,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>40</v>
       </c>
@@ -1953,7 +1964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>191</v>
       </c>
@@ -1965,7 +1976,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>44</v>
       </c>
@@ -1977,7 +1988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>52</v>
       </c>
@@ -1991,7 +2002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>185</v>
       </c>
@@ -2005,7 +2016,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>32</v>
       </c>
@@ -2017,7 +2028,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>37</v>
       </c>
@@ -2029,7 +2040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -2041,7 +2052,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>24</v>
       </c>
@@ -2055,7 +2066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>51</v>
       </c>
@@ -2069,7 +2080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>23</v>
       </c>
@@ -2083,7 +2094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>2</v>
       </c>
@@ -2097,7 +2108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>192</v>
       </c>
@@ -2111,7 +2122,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>211</v>
       </c>
@@ -2125,7 +2136,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>18</v>
       </c>
@@ -2151,7 +2162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>36</v>
       </c>
@@ -2163,7 +2174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>186</v>
       </c>
@@ -2177,7 +2188,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>59</v>
       </c>
@@ -2191,7 +2202,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>5</v>
       </c>
@@ -2205,7 +2216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>188</v>
       </c>
@@ -2217,7 +2228,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>22</v>
       </c>
@@ -2229,7 +2240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>49</v>
       </c>
@@ -2243,7 +2254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>56</v>
       </c>
@@ -2257,7 +2268,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>6</v>
       </c>
@@ -2271,7 +2282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>206</v>
       </c>
@@ -2279,13 +2290,13 @@
         <v>97</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>20</v>
       </c>
@@ -2297,7 +2308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>45</v>
       </c>
@@ -2311,7 +2322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>17</v>
       </c>
@@ -2325,7 +2336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
@@ -2339,7 +2350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -2353,7 +2364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>31</v>
       </c>
@@ -2367,7 +2378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>203</v>
       </c>
@@ -2381,7 +2392,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>175</v>
       </c>
@@ -2395,7 +2406,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>1</v>
       </c>
@@ -2407,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>139</v>
       </c>
@@ -2421,7 +2432,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>101</v>
       </c>
@@ -2433,7 +2444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>15</v>
       </c>
@@ -2484,7 +2495,7 @@
     <hyperlink ref="C64" r:id="rId33"/>
     <hyperlink ref="C87" r:id="rId34"/>
     <hyperlink ref="C85" r:id="rId35"/>
-    <hyperlink ref="C77" r:id="rId36"/>
+    <hyperlink ref="C77" r:id="rId36" display="https://www.geonames.org/3054638/budapest.html "/>
     <hyperlink ref="C75" r:id="rId37"/>
     <hyperlink ref="C65" r:id="rId38"/>
     <hyperlink ref="C61" r:id="rId39"/>

--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0574EB03-8D50-4FD3-B041-6BF42C68E979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -506,9 +507,6 @@
     <t>https://www.geonames.org/3202326/republic-of-croatia.html</t>
   </si>
   <si>
-    <t>https://www.geonames.org/5128638/new-york.html</t>
-  </si>
-  <si>
     <t>https://www.geonames.org/3333167/liverpool.html</t>
   </si>
   <si>
@@ -798,12 +796,15 @@
   </si>
   <si>
     <t>https://www.geonames.org/12059772/budapest-vi.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/5128581/new-york.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,8 +893,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -963,15 +964,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D1048575" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <sortState ref="A2:D89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D1048575" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="Name" dataDxfId="3"/>
-    <tableColumn id="1" name="heute" dataDxfId="2"/>
-    <tableColumn id="2" name="PID" dataDxfId="1"/>
-    <tableColumn id="3" name="key" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="heute" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PID" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="key" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1263,36 +1264,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="224" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="224" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="74.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1306,19 +1307,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -1342,9 +1343,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>70</v>
@@ -1353,10 +1354,10 @@
         <v>108</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>132</v>
       </c>
@@ -1367,10 +1368,10 @@
         <v>109</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1384,33 +1385,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -1472,13 +1473,13 @@
         <v>33</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>58</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1520,19 +1521,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>142</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1546,12 +1547,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>122</v>
@@ -1560,7 +1561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
@@ -1572,21 +1573,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -1622,19 +1623,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>140</v>
       </c>
@@ -1658,19 +1659,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -1693,10 +1694,10 @@
         <v>129</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>103</v>
       </c>
@@ -1708,23 +1709,23 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>73</v>
@@ -1733,10 +1734,10 @@
         <v>151</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -1744,13 +1745,13 @@
         <v>74</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1764,19 +1765,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>54</v>
       </c>
@@ -1804,21 +1805,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>78</v>
@@ -1827,12 +1828,12 @@
         <v>137</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>79</v>
@@ -1841,10 +1842,10 @@
         <v>135</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
@@ -1858,21 +1859,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>25</v>
       </c>
@@ -1894,41 +1895,41 @@
         <v>83</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>84</v>
@@ -1937,58 +1938,58 @@
         <v>114</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>159</v>
+      <c r="C51" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>52</v>
       </c>
@@ -2002,21 +2003,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>32</v>
       </c>
@@ -2025,22 +2026,22 @@
         <v>153</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>24</v>
       </c>
@@ -2060,13 +2061,13 @@
         <v>88</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>51</v>
       </c>
@@ -2074,13 +2075,13 @@
         <v>91</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>23</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>2</v>
       </c>
@@ -2108,35 +2109,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>0</v>
       </c>
@@ -2150,45 +2151,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>59</v>
       </c>
@@ -2202,12 +2203,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>145</v>
@@ -2216,19 +2217,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>49</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>56</v>
       </c>
@@ -2262,53 +2263,53 @@
         <v>96</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>45</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>17</v>
       </c>
@@ -2330,27 +2331,27 @@
         <v>17</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -2358,18 +2359,18 @@
         <v>99</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>154</v>
@@ -2378,35 +2379,35 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>1</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>139</v>
       </c>
@@ -2426,33 +2427,33 @@
         <v>100</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>15</v>
@@ -2460,58 +2461,59 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C48" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15"/>
-    <hyperlink ref="C18" r:id="rId16"/>
-    <hyperlink ref="C20" r:id="rId17"/>
-    <hyperlink ref="C21" r:id="rId18"/>
-    <hyperlink ref="C23" r:id="rId19"/>
-    <hyperlink ref="C24" r:id="rId20"/>
-    <hyperlink ref="C25" r:id="rId21"/>
-    <hyperlink ref="C26" r:id="rId22"/>
-    <hyperlink ref="C9" r:id="rId23"/>
-    <hyperlink ref="C27" r:id="rId24"/>
-    <hyperlink ref="C32" r:id="rId25"/>
-    <hyperlink ref="C31" r:id="rId26"/>
-    <hyperlink ref="C33" r:id="rId27"/>
-    <hyperlink ref="C28" r:id="rId28"/>
-    <hyperlink ref="C22" r:id="rId29"/>
-    <hyperlink ref="C89" r:id="rId30" display="https://www.geonames.org/11055010/zadar.html "/>
-    <hyperlink ref="C88" r:id="rId31"/>
-    <hyperlink ref="C19" r:id="rId32"/>
-    <hyperlink ref="C64" r:id="rId33"/>
-    <hyperlink ref="C87" r:id="rId34"/>
-    <hyperlink ref="C85" r:id="rId35"/>
-    <hyperlink ref="C77" r:id="rId36" display="https://www.geonames.org/3054638/budapest.html "/>
-    <hyperlink ref="C75" r:id="rId37"/>
-    <hyperlink ref="C65" r:id="rId38"/>
-    <hyperlink ref="C61" r:id="rId39"/>
-    <hyperlink ref="C55" r:id="rId40"/>
-    <hyperlink ref="C53" r:id="rId41"/>
-    <hyperlink ref="C37" r:id="rId42"/>
-    <hyperlink ref="C50" r:id="rId43"/>
-    <hyperlink ref="C49" r:id="rId44"/>
-    <hyperlink ref="C47" r:id="rId45"/>
-    <hyperlink ref="C45" r:id="rId46"/>
-    <hyperlink ref="C58" r:id="rId47"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C48" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C33" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C89" r:id="rId30" display="https://www.geonames.org/11055010/zadar.html " xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C88" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C64" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C87" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C85" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C77" r:id="rId36" display="https://www.geonames.org/3054638/budapest.html " xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C75" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C65" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C61" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C55" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C53" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C37" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C45" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C58" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C51" r:id="rId48" xr:uid="{DD859658-66E7-46B4-B0B8-F7702E521FCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
   <tableParts count="1">
-    <tablePart r:id="rId49"/>
+    <tablePart r:id="rId50"/>
   </tableParts>
 </worksheet>
 </file>